--- a/append-datasets-simple-example.xlsx
+++ b/append-datasets-simple-example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27419"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE2A584-0D18-4464-848C-7D45B5BF43B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F8108B-5EF6-45BC-A8AF-2951AE222CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{F9D9D0F3-D46A-4BAF-BF18-ADFC493A064B}"/>
   </bookViews>
@@ -129,15 +129,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>265339</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>340179</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>2354036</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -195,15 +195,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>193221</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>254454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>2281918</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -261,15 +261,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>250371</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>400049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>2339068</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>155120</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -329,8 +329,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D009D409-1401-43BE-A4DF-7B093DC84DFA}" name="Table1" displayName="Table1" ref="A1:C4" totalsRowShown="0">
-  <autoFilter ref="A1:C4" xr:uid="{D009D409-1401-43BE-A4DF-7B093DC84DFA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D009D409-1401-43BE-A4DF-7B093DC84DFA}" name="Table1" displayName="Table1" ref="B2:D5" totalsRowShown="0">
+  <autoFilter ref="B2:D5" xr:uid="{D009D409-1401-43BE-A4DF-7B093DC84DFA}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AADA0AA3-0A69-4BC4-A347-B7F93E4DF067}" name="month"/>
     <tableColumn id="2" xr3:uid="{518ACC4E-AD97-4051-825A-890F314829A0}" name="region_number"/>
@@ -341,8 +341,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4B136294-91D0-40AD-A3F7-81256CBBFF62}" name="Table2" displayName="Table2" ref="A6:C9" totalsRowShown="0">
-  <autoFilter ref="A6:C9" xr:uid="{4B136294-91D0-40AD-A3F7-81256CBBFF62}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4B136294-91D0-40AD-A3F7-81256CBBFF62}" name="Table2" displayName="Table2" ref="B7:D10" totalsRowShown="0">
+  <autoFilter ref="B7:D10" xr:uid="{4B136294-91D0-40AD-A3F7-81256CBBFF62}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{24CCB06C-6DA3-4810-ABD7-611DD1F394E3}" name="month"/>
     <tableColumn id="2" xr3:uid="{84707A45-AF5B-48D3-87D8-EC90053CB7CC}" name="region_number"/>
@@ -353,8 +353,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F9975E7B-5E5A-4EAB-9323-3C731546BE0C}" name="Table3" displayName="Table3" ref="A11:C14" totalsRowShown="0">
-  <autoFilter ref="A11:C14" xr:uid="{F9975E7B-5E5A-4EAB-9323-3C731546BE0C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F9975E7B-5E5A-4EAB-9323-3C731546BE0C}" name="Table3" displayName="Table3" ref="B12:D15" totalsRowShown="0">
+  <autoFilter ref="B12:D15" xr:uid="{F9975E7B-5E5A-4EAB-9323-3C731546BE0C}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{A88C5FC3-9B5A-4021-A5D0-CC31D73D230E}" name="month"/>
     <tableColumn id="2" xr3:uid="{B2195588-8225-4AD1-A431-614987676E03}" name="region_number"/>
@@ -365,8 +365,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C3013B3A-C0FC-4AC4-8FB9-CEF6305D8D49}" name="Table15" displayName="Table15" ref="E3:G12" totalsRowShown="0">
-  <autoFilter ref="E3:G12" xr:uid="{C3013B3A-C0FC-4AC4-8FB9-CEF6305D8D49}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C3013B3A-C0FC-4AC4-8FB9-CEF6305D8D49}" name="Table15" displayName="Table15" ref="F4:H13" totalsRowShown="0">
+  <autoFilter ref="F4:H13" xr:uid="{C3013B3A-C0FC-4AC4-8FB9-CEF6305D8D49}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{0FB1141D-AEAA-416C-95AB-8EAC32C32127}" name="month"/>
     <tableColumn id="2" xr3:uid="{8D0D27BA-774E-4B68-B058-C80F45975D44}" name="region_number"/>
@@ -693,246 +693,246 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48CBB888-3D78-4CB6-9867-1462BE057B8A}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="B2:H15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.15" x14ac:dyDescent="1.05"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.3984375" customWidth="1"/>
-    <col min="3" max="3" width="9.828125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5390625" customWidth="1"/>
-    <col min="5" max="5" width="7.484375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.68359375" style="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.3984375" customWidth="1"/>
+    <col min="4" max="4" width="9.828125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5390625" customWidth="1"/>
+    <col min="6" max="6" width="7.484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.68359375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="1.05">
-      <c r="A1" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="1.05">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="1.05">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
+    <row r="3" spans="2:8" x14ac:dyDescent="1.05">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D3" s="1">
         <v>1182</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="1.05">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
+    <row r="4" spans="2:8" x14ac:dyDescent="1.05">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D4" s="1">
         <v>946</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F4" t="s">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G4" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="1.05">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
+    <row r="5" spans="2:8" x14ac:dyDescent="1.05">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
         <v>1034</v>
       </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4">
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5">
         <v>1</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H5" s="1">
         <v>1182</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="1.05">
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5">
+    <row r="6" spans="2:8" x14ac:dyDescent="1.05">
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6">
         <v>2</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H6" s="1">
         <v>946</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="1.05">
-      <c r="A6" t="s">
+    <row r="7" spans="2:8" x14ac:dyDescent="1.05">
+      <c r="B7" t="s">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C7" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1">
         <v>1034</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="1.05">
-      <c r="A7" t="s">
+    <row r="8" spans="2:8" x14ac:dyDescent="1.05">
+      <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D8" s="1">
         <v>983</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F8" t="s">
         <v>4</v>
       </c>
-      <c r="F7">
+      <c r="G8">
         <v>1</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H8" s="1">
         <v>983</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="1.05">
-      <c r="A8" t="s">
+    <row r="9" spans="2:8" x14ac:dyDescent="1.05">
+      <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="B8">
+      <c r="C9">
         <v>2</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D9" s="1">
         <v>1166</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F9" t="s">
         <v>4</v>
       </c>
-      <c r="F8">
+      <c r="G9">
         <v>2</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H9" s="1">
         <v>1166</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="1.05">
-      <c r="A9" t="s">
+    <row r="10" spans="2:8" x14ac:dyDescent="1.05">
+      <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
         <v>805</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F10" t="s">
         <v>4</v>
       </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10" s="1">
         <v>805</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="1.05">
-      <c r="E10" t="s">
+    <row r="11" spans="2:8" x14ac:dyDescent="1.05">
+      <c r="F11" t="s">
         <v>5</v>
       </c>
-      <c r="F10">
+      <c r="G11">
         <v>1</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H11" s="1">
         <v>1052</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="1.05">
-      <c r="A11" t="s">
+    <row r="12" spans="2:8" x14ac:dyDescent="1.05">
+      <c r="B12" t="s">
         <v>0</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C12" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F12" t="s">
         <v>5</v>
       </c>
-      <c r="F11">
+      <c r="G12">
         <v>2</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H12" s="1">
         <v>1162</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="1.05">
-      <c r="A12" t="s">
+    <row r="13" spans="2:8" x14ac:dyDescent="1.05">
+      <c r="B13" t="s">
         <v>5</v>
       </c>
-      <c r="B12">
+      <c r="C13">
         <v>1</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D13" s="1">
         <v>1052</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F13" t="s">
         <v>5</v>
       </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-      <c r="G12" s="1">
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13" s="1">
         <v>1250</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="1.05">
-      <c r="A13" t="s">
+    <row r="14" spans="2:8" x14ac:dyDescent="1.05">
+      <c r="B14" t="s">
         <v>5</v>
       </c>
-      <c r="B13">
+      <c r="C14">
         <v>2</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D14" s="1">
         <v>1162</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="1.05">
-      <c r="A14" t="s">
+    <row r="15" spans="2:8" x14ac:dyDescent="1.05">
+      <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
         <v>1250</v>
       </c>
     </row>
